--- a/data/trans_orig/P59A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>45837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34245</v>
+        <v>34348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60043</v>
+        <v>59746</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1790747940499571</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1337895556448119</v>
+        <v>0.1341896167896441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.234575461859642</v>
+        <v>0.2334150314183279</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>37867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27271</v>
+        <v>27635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51613</v>
+        <v>50638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08579869998337357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06179192608754595</v>
+        <v>0.06261672068955593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.116945836442073</v>
+        <v>0.1147351731789598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -786,19 +786,19 @@
         <v>83703</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66794</v>
+        <v>68333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102822</v>
+        <v>102711</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1200380173851202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09578830994486519</v>
+        <v>0.09799638803241012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1474563191459536</v>
+        <v>0.1472968594521938</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>210127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195921</v>
+        <v>196218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>221719</v>
+        <v>221616</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8209252059500429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.765424538140358</v>
+        <v>0.7665849685816724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8662104443551881</v>
+        <v>0.8658103832103565</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>386</v>
@@ -836,19 +836,19 @@
         <v>403476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>389730</v>
+        <v>390705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>414072</v>
+        <v>413708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9142013000166265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8830541635579272</v>
+        <v>0.88526482682104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9382080739124544</v>
+        <v>0.937383279310444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -857,19 +857,19 @@
         <v>613603</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>594484</v>
+        <v>594595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630512</v>
+        <v>628973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8799619826148798</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8525436808540464</v>
+        <v>0.8527031405478063</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9042116900551348</v>
+        <v>0.90200361196759</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>52045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39029</v>
+        <v>40015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67419</v>
+        <v>66901</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1350554217441313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.101277912724916</v>
+        <v>0.1038374049861389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.174948978008175</v>
+        <v>0.173605866162723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>38973</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28434</v>
+        <v>27410</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52509</v>
+        <v>52768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1000639092273565</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07300352749676554</v>
+        <v>0.07037470948011434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1348171629426211</v>
+        <v>0.1354823027943642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1003,19 +1003,19 @@
         <v>91019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75471</v>
+        <v>73964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112728</v>
+        <v>111385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1174666032786943</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09740090839562675</v>
+        <v>0.09545592045779749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1454840524315258</v>
+        <v>0.1437510949799657</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>333319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>317945</v>
+        <v>318463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>346335</v>
+        <v>345349</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8649445782558687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8250510219918249</v>
+        <v>0.826394133837277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8987220872750841</v>
+        <v>0.8961625950138611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -1053,19 +1053,19 @@
         <v>350512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336976</v>
+        <v>336717</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>361051</v>
+        <v>362075</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8999360907726435</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8651828370573786</v>
+        <v>0.8645176972056361</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9269964725032345</v>
+        <v>0.929625290519886</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>671</v>
@@ -1074,19 +1074,19 @@
         <v>683830</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>662121</v>
+        <v>663464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>699378</v>
+        <v>700885</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8825333967213057</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8545159475684742</v>
+        <v>0.8562489050200343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9025990916043731</v>
+        <v>0.9045440795422023</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>56579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43402</v>
+        <v>43137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73809</v>
+        <v>72939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1295479001117339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09937723772191194</v>
+        <v>0.09876996932243172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1690003176296347</v>
+        <v>0.1670093570597823</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1199,19 +1199,19 @@
         <v>46438</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34680</v>
+        <v>35013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61163</v>
+        <v>59819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1193026964466791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08909553223373254</v>
+        <v>0.08995203165277763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1571344835196583</v>
+        <v>0.1536799683940041</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1220,19 +1220,19 @@
         <v>103016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84780</v>
+        <v>85098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124142</v>
+        <v>122260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1247198571080586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.102641604693155</v>
+        <v>0.1030259964234529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1502958261166067</v>
+        <v>0.1480173703458117</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>380160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>362930</v>
+        <v>363800</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>393337</v>
+        <v>393602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8704520998882661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8309996823703653</v>
+        <v>0.8329906429402173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.900622762278088</v>
+        <v>0.9012300306775682</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>348</v>
@@ -1270,19 +1270,19 @@
         <v>342805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328080</v>
+        <v>329424</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354563</v>
+        <v>354230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8806973035533209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8428655164803417</v>
+        <v>0.8463200316059959</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9109044677662675</v>
+        <v>0.9100479683472225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>727</v>
@@ -1291,19 +1291,19 @@
         <v>722966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>701840</v>
+        <v>703722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>741202</v>
+        <v>740884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8752801428919413</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8497041738833934</v>
+        <v>0.8519826296541883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8973583953068451</v>
+        <v>0.896974003576547</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>18838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11736</v>
+        <v>11763</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29848</v>
+        <v>30522</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09879015105006897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06154817864105913</v>
+        <v>0.06168743200698633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1565288774664367</v>
+        <v>0.1600661870697361</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1416,19 +1416,19 @@
         <v>17360</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10124</v>
+        <v>11046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26011</v>
+        <v>26532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1242180231765378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07243910165320379</v>
+        <v>0.07903646738399925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1861203783682702</v>
+        <v>0.1898461002274232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1437,19 +1437,19 @@
         <v>36198</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24607</v>
+        <v>26292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49726</v>
+        <v>49297</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1095444269620518</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0744682127405059</v>
+        <v>0.07956668608217604</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.150484673444786</v>
+        <v>0.1491861358629885</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>171848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>160838</v>
+        <v>160164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178950</v>
+        <v>178923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9012098489499311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8434711225335633</v>
+        <v>0.8399338129302651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9384518213589409</v>
+        <v>0.9383125679930139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -1487,19 +1487,19 @@
         <v>122394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113743</v>
+        <v>113222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129630</v>
+        <v>128708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8757819768234621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8138796216317298</v>
+        <v>0.8101538997725768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9275608983467961</v>
+        <v>0.9209635326160007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -1508,19 +1508,19 @@
         <v>294241</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>280713</v>
+        <v>281142</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305832</v>
+        <v>304147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8904555730379482</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8495153265552142</v>
+        <v>0.8508138641370117</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9255317872594941</v>
+        <v>0.9204333139178241</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>173299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149453</v>
+        <v>147501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>198711</v>
+        <v>198865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1365897934874869</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1177954960121695</v>
+        <v>0.1162568397732927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1566192092121164</v>
+        <v>0.1567406460135655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>132</v>
@@ -1633,19 +1633,19 @@
         <v>140638</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>120484</v>
+        <v>119047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165561</v>
+        <v>164235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1034234230863769</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08860252706871442</v>
+        <v>0.08754611595378833</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1217518529572317</v>
+        <v>0.1207767871498334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>296</v>
@@ -1654,19 +1654,19 @@
         <v>313936</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>278963</v>
+        <v>281891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349579</v>
+        <v>348129</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1194320477485132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1061269388837077</v>
+        <v>0.1072408472719066</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1329918192739426</v>
+        <v>0.1324401336518393</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1095453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1070041</v>
+        <v>1069887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1119299</v>
+        <v>1121251</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8634102065125131</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8433807907878836</v>
+        <v>0.8432593539864349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8822045039878306</v>
+        <v>0.8837431602267075</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1201</v>
@@ -1704,19 +1704,19 @@
         <v>1219187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1194264</v>
+        <v>1195590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1239341</v>
+        <v>1240778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.896576576913623</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8782481470427683</v>
+        <v>0.8792232128501665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9113974729312855</v>
+        <v>0.9124538840462116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2281</v>
@@ -1725,19 +1725,19 @@
         <v>2314641</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2278998</v>
+        <v>2280448</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2349614</v>
+        <v>2346686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8805679522514869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8670081807260573</v>
+        <v>0.8675598663481605</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8938730611162921</v>
+        <v>0.8927591527280933</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>80967</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66277</v>
+        <v>65226</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98642</v>
+        <v>99012</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1891301608023101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1548169924136033</v>
+        <v>0.1523604239721796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2304168273199489</v>
+        <v>0.2312820184678069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -2090,19 +2090,19 @@
         <v>74711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58842</v>
+        <v>60012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93023</v>
+        <v>91356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1534813073825484</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1208813197698864</v>
+        <v>0.1232840137908893</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1911012178730044</v>
+        <v>0.1876759878742784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -2111,19 +2111,19 @@
         <v>155678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133366</v>
+        <v>134718</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178429</v>
+        <v>181036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1701625592441041</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1457744447686312</v>
+        <v>0.1472524290068807</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1950305730389383</v>
+        <v>0.1978804917186863</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>347134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>329459</v>
+        <v>329089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361824</v>
+        <v>362875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8108698391976898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7695831726800512</v>
+        <v>0.7687179815321931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8451830075863968</v>
+        <v>0.8476395760278204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>380</v>
@@ -2161,19 +2161,19 @@
         <v>412065</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393753</v>
+        <v>395420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427934</v>
+        <v>426764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8465186926174516</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8088987821269957</v>
+        <v>0.8123240121257217</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8791186802301137</v>
+        <v>0.8767159862091108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>711</v>
@@ -2182,19 +2182,19 @@
         <v>759199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736448</v>
+        <v>733841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>781511</v>
+        <v>780159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8298374407558959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8049694269610619</v>
+        <v>0.802119508281314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8542255552313689</v>
+        <v>0.8527475709931194</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>60552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46272</v>
+        <v>46477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77497</v>
+        <v>76196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1530558485710207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1169614469218767</v>
+        <v>0.1174780148730879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1958868558999493</v>
+        <v>0.1925988838266119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -2307,19 +2307,19 @@
         <v>66508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52354</v>
+        <v>51984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86316</v>
+        <v>85391</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1527128179302735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1202130568521956</v>
+        <v>0.1193635773760464</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1981960357374697</v>
+        <v>0.1960713241297916</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -2328,19 +2328,19 @@
         <v>127060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105466</v>
+        <v>105802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150356</v>
+        <v>150431</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1528761014011238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1268947973621568</v>
+        <v>0.1272990088303693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1809058278474355</v>
+        <v>0.180995371077914</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>335067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>318122</v>
+        <v>319423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349347</v>
+        <v>349142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8469441514289793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8041131441000506</v>
+        <v>0.8074011161733881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8830385530781233</v>
+        <v>0.8825219851269117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -2378,19 +2378,19 @@
         <v>369001</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349193</v>
+        <v>350118</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>383155</v>
+        <v>383525</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8472871820697265</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8018039642625301</v>
+        <v>0.8039286758702083</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8797869431478044</v>
+        <v>0.8806364226239535</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>672</v>
@@ -2399,19 +2399,19 @@
         <v>704069</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>680773</v>
+        <v>680698</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725663</v>
+        <v>725327</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8471238985988762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8190941721525645</v>
+        <v>0.8190046289220858</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8731052026378432</v>
+        <v>0.8727009911696307</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>40489</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28838</v>
+        <v>29009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55190</v>
+        <v>55186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1181598966222407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08415740832751896</v>
+        <v>0.08465755103397041</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1610633717393715</v>
+        <v>0.1610506412906691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -2524,19 +2524,19 @@
         <v>42545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31178</v>
+        <v>30594</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57671</v>
+        <v>56764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1273211932262372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09330412001553626</v>
+        <v>0.09155671464652212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1725857786573906</v>
+        <v>0.1698714328279176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -2545,19 +2545,19 @@
         <v>83034</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66256</v>
+        <v>66773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101848</v>
+        <v>101091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1226829738057016</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09789263844393961</v>
+        <v>0.09865721412585458</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1504809205941842</v>
+        <v>0.1493610940696691</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>302174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287473</v>
+        <v>287477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313825</v>
+        <v>313654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8818401033777593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8389366282606285</v>
+        <v>0.8389493587093309</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9158425916724811</v>
+        <v>0.9153424489660296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>275</v>
@@ -2595,19 +2595,19 @@
         <v>291612</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276486</v>
+        <v>277393</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302979</v>
+        <v>303563</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8726788067737627</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8274142213426092</v>
+        <v>0.8301285671720819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9066958799844637</v>
+        <v>0.9084432853534778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>562</v>
@@ -2616,19 +2616,19 @@
         <v>593786</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>574972</v>
+        <v>575729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>610564</v>
+        <v>610047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8773170261942984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8495190794058158</v>
+        <v>0.8506389059303308</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9021073615560602</v>
+        <v>0.9013427858741454</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>29574</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20328</v>
+        <v>20068</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41857</v>
+        <v>42547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1408023747307041</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09678197321808082</v>
+        <v>0.09554357178839572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1992786945090959</v>
+        <v>0.2025633218992903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -2741,19 +2741,19 @@
         <v>17956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10981</v>
+        <v>11046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26743</v>
+        <v>27241</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1093857621804996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0668949553981904</v>
+        <v>0.06729067103122938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1629172194139986</v>
+        <v>0.1659475749556339</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -2762,19 +2762,19 @@
         <v>47530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34000</v>
+        <v>34312</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62249</v>
+        <v>62296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1270204161625572</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09086087255025313</v>
+        <v>0.09169471034712419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1663548437697846</v>
+        <v>0.1664802828563799</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>180468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168185</v>
+        <v>167495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189714</v>
+        <v>189974</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8591976252692959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8007213054909041</v>
+        <v>0.797436678100709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9032180267819192</v>
+        <v>0.904456428211604</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -2812,19 +2812,19 @@
         <v>146197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137410</v>
+        <v>136912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153172</v>
+        <v>153107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8906142378195004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8370827805860014</v>
+        <v>0.8340524250443663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9331050446018097</v>
+        <v>0.9327093289687708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>307</v>
@@ -2833,19 +2833,19 @@
         <v>326665</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311946</v>
+        <v>311899</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>340195</v>
+        <v>339883</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8729795838374428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8336451562302154</v>
+        <v>0.8335197171436204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9091391274497468</v>
+        <v>0.9083052896528762</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>211582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186049</v>
+        <v>185869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242375</v>
+        <v>245895</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1537185261332278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1351681536837457</v>
+        <v>0.1350375397748446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1760902800465163</v>
+        <v>0.1786475821081137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -2958,19 +2958,19 @@
         <v>201720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>177268</v>
+        <v>177039</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>230420</v>
+        <v>230861</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1419969055104295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1247843335892912</v>
+        <v>0.1246230771342092</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1621994638389805</v>
+        <v>0.1625097424760596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>374</v>
@@ -2979,19 +2979,19 @@
         <v>413302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>378587</v>
+        <v>373667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>461225</v>
+        <v>454034</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1477651612590225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.135353799648308</v>
+        <v>0.1335945175253345</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1648988154013417</v>
+        <v>0.1623275849033295</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1164843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1134050</v>
+        <v>1130530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1190376</v>
+        <v>1190556</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8462814738667722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8239097199534838</v>
+        <v>0.8213524178918861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8648318463162543</v>
+        <v>0.8649624602251553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1143</v>
@@ -3029,19 +3029,19 @@
         <v>1218876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1190176</v>
+        <v>1189735</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1243328</v>
+        <v>1243557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8580030944895706</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8378005361610195</v>
+        <v>0.8374902575239404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8752156664107088</v>
+        <v>0.8753769228657906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2252</v>
@@ -3050,19 +3050,19 @@
         <v>2383719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2335796</v>
+        <v>2342987</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2418434</v>
+        <v>2423354</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8522348387409775</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8351011845986581</v>
+        <v>0.8376724150966706</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8646462003516919</v>
+        <v>0.8664054824746655</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>106579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86522</v>
+        <v>88965</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127004</v>
+        <v>125631</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2099177682992414</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1704143748840929</v>
+        <v>0.1752266978454355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2501481739972941</v>
+        <v>0.2474443653182815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -3415,19 +3415,19 @@
         <v>85365</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69365</v>
+        <v>69683</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104463</v>
+        <v>105015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1398647879171912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1136500993043076</v>
+        <v>0.1141717021150599</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1711558154714919</v>
+        <v>0.1720607255662057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -3436,19 +3436,19 @@
         <v>191943</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166738</v>
+        <v>167854</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216360</v>
+        <v>218176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1716764001284921</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1491328209107259</v>
+        <v>0.1501307504447911</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1935154971447798</v>
+        <v>0.1951393776344233</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>401137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380712</v>
+        <v>382085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421194</v>
+        <v>418751</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7900822317007585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7498518260027058</v>
+        <v>0.7525556346817184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8295856251159072</v>
+        <v>0.8247733021545645</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>491</v>
@@ -3486,19 +3486,19 @@
         <v>524971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>505873</v>
+        <v>505321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>540971</v>
+        <v>540653</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8601352120828087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8288441845285081</v>
+        <v>0.827939274433794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8863499006956924</v>
+        <v>0.8858282978849401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>873</v>
@@ -3507,19 +3507,19 @@
         <v>926109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>901692</v>
+        <v>899876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>951314</v>
+        <v>950198</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8283235998715079</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8064845028552201</v>
+        <v>0.8048606223655767</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8508671790892741</v>
+        <v>0.8498692495552088</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>51502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38638</v>
+        <v>38960</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65932</v>
+        <v>68355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1390446115248164</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1043162212899259</v>
+        <v>0.1051834715192016</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1780030324859089</v>
+        <v>0.1845466087181375</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -3632,19 +3632,19 @@
         <v>65447</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51028</v>
+        <v>51495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79746</v>
+        <v>80643</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1533541331541217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1195686316176719</v>
+        <v>0.120662697902181</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1868593585394824</v>
+        <v>0.1889616315280629</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -3653,19 +3653,19 @@
         <v>116949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99205</v>
+        <v>100014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138507</v>
+        <v>139484</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1467053449870167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1244475026804617</v>
+        <v>0.1254615355220428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1737487007257651</v>
+        <v>0.174975209411031</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>318894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>304464</v>
+        <v>302041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331758</v>
+        <v>331436</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8609553884751836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8219969675140913</v>
+        <v>0.8154533912818627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8956837787100741</v>
+        <v>0.8948165284807985</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -3703,19 +3703,19 @@
         <v>361323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347024</v>
+        <v>346127</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375742</v>
+        <v>375275</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8466458668458783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8131406414605176</v>
+        <v>0.8110383684719369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8804313683823281</v>
+        <v>0.879337302097819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -3724,19 +3724,19 @@
         <v>680217</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>658659</v>
+        <v>657682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>697961</v>
+        <v>697152</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8532946550129833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8262512992742349</v>
+        <v>0.8250247905889688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8755524973195383</v>
+        <v>0.8745384644779571</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>50625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37552</v>
+        <v>38661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65355</v>
+        <v>66428</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1539377329136648</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1141856304763998</v>
+        <v>0.1175565054237837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1987253996020437</v>
+        <v>0.2019895213488924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3849,19 +3849,19 @@
         <v>37691</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26463</v>
+        <v>26468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49407</v>
+        <v>48970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1184995719173655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08319899569456804</v>
+        <v>0.08321505088311938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1553336119600184</v>
+        <v>0.1539592269147289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -3870,19 +3870,19 @@
         <v>88317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72568</v>
+        <v>73029</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108363</v>
+        <v>108135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1365143800618941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1121708446110249</v>
+        <v>0.1128829618511266</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1675012630374538</v>
+        <v>0.1671484716549854</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>278244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>263514</v>
+        <v>262441</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291317</v>
+        <v>290208</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8460622670863351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8012746003979569</v>
+        <v>0.7980104786511074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8858143695236002</v>
+        <v>0.8824434945762162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>261</v>
@@ -3920,19 +3920,19 @@
         <v>280381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268665</v>
+        <v>269102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>291609</v>
+        <v>291604</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8815004280826345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8446663880399825</v>
+        <v>0.8460407730852707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.916801004305432</v>
+        <v>0.9167849491168804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -3941,19 +3941,19 @@
         <v>558624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>538578</v>
+        <v>538806</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>574373</v>
+        <v>573912</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8634856199381059</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8324987369625461</v>
+        <v>0.8328515283450146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8878291553889748</v>
+        <v>0.8871170381488733</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>45522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34183</v>
+        <v>35079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60847</v>
+        <v>59027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.188402664891443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1414740165196275</v>
+        <v>0.145179956187057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2518278910500238</v>
+        <v>0.2442946931897648</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -4066,19 +4066,19 @@
         <v>34766</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24869</v>
+        <v>24500</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49593</v>
+        <v>47841</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1515963016800058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1084385288236793</v>
+        <v>0.1068326693291888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2162463273277992</v>
+        <v>0.2086081512428676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -4087,19 +4087,19 @@
         <v>80289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64609</v>
+        <v>65861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97372</v>
+        <v>100774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1704796139142349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.137186115782403</v>
+        <v>0.1398439881426025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2067543358539286</v>
+        <v>0.2139780201830961</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>196100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180775</v>
+        <v>182595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>207439</v>
+        <v>206543</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.811597335108557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7481721089499763</v>
+        <v>0.7557053068102353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.858525983480373</v>
+        <v>0.8548200438129431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -4137,19 +4137,19 @@
         <v>194569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179742</v>
+        <v>181494</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204466</v>
+        <v>204835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8484036983199943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7837536726722006</v>
+        <v>0.7913918487571332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8915614711763207</v>
+        <v>0.8931673306708117</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -4158,19 +4158,19 @@
         <v>390668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>373585</v>
+        <v>370183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>406348</v>
+        <v>405096</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8295203860857651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7932456641460714</v>
+        <v>0.7860219798169039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8628138842175971</v>
+        <v>0.8601560118573975</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>254228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226797</v>
+        <v>225437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>287402</v>
+        <v>284148</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1754985793890464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.15656255632151</v>
+        <v>0.1556240590459188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1983994460937062</v>
+        <v>0.1961534267305642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>219</v>
@@ -4283,19 +4283,19 @@
         <v>223269</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197794</v>
+        <v>196631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>253626</v>
+        <v>252394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1409071420031709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1248297930807826</v>
+        <v>0.1240954051191125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1600657178940869</v>
+        <v>0.1592880538514983</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>452</v>
@@ -4304,19 +4304,19 @@
         <v>477497</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>437757</v>
+        <v>440724</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>519680</v>
+        <v>520771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1574278652507002</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1443259467904119</v>
+        <v>0.1453041987082375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.171335392070743</v>
+        <v>0.1716952086567161</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1194375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1161201</v>
+        <v>1164455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1221806</v>
+        <v>1223166</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8245014206109536</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8016005539062938</v>
+        <v>0.8038465732694359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8434374436784902</v>
+        <v>0.8443759409540812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1275</v>
@@ -4354,19 +4354,19 @@
         <v>1361243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1330886</v>
+        <v>1332118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1386718</v>
+        <v>1387881</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8590928579968291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.839934282105913</v>
+        <v>0.8407119461485016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8751702069192174</v>
+        <v>0.8759045948808875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2419</v>
@@ -4375,19 +4375,19 @@
         <v>2555618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2513435</v>
+        <v>2512344</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2595358</v>
+        <v>2592391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8425721347492998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.828664607929257</v>
+        <v>0.8283047913432838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8556740532095884</v>
+        <v>0.8546958012917625</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>42998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30647</v>
+        <v>30896</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59500</v>
+        <v>60604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1434340224006766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1022313587225348</v>
+        <v>0.103063820999229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1984808456645662</v>
+        <v>0.2021657277928043</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -4740,19 +4740,19 @@
         <v>48885</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35981</v>
+        <v>37257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63314</v>
+        <v>64342</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1218832347687516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0897104004432675</v>
+        <v>0.09289002741207401</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1578562603972817</v>
+        <v>0.1604206099513716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -4761,19 +4761,19 @@
         <v>91883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73458</v>
+        <v>73953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112905</v>
+        <v>112617</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.131101073019838</v>
+        <v>0.1311010730198379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.104811918984708</v>
+        <v>0.105517503502798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1610942383982911</v>
+        <v>0.1606840808173695</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>256778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240276</v>
+        <v>239172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269129</v>
+        <v>268880</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8565659775993233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8015191543354339</v>
+        <v>0.7978342722071957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8977686412774654</v>
+        <v>0.896936179000771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>484</v>
@@ -4811,19 +4811,19 @@
         <v>352199</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337770</v>
+        <v>336742</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>365103</v>
+        <v>363827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8781167652312484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8421437396027184</v>
+        <v>0.8395793900486284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9102895995567325</v>
+        <v>0.9071099725879258</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>704</v>
@@ -4832,19 +4832,19 @@
         <v>608977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>587955</v>
+        <v>588243</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>627402</v>
+        <v>626907</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.868898926980162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8389057616017089</v>
+        <v>0.8393159191826302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.895188081015292</v>
+        <v>0.8944824964972018</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>75741</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57407</v>
+        <v>56058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99804</v>
+        <v>96947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1629846900445133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1235324136837896</v>
+        <v>0.1206299803370532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2147641952567431</v>
+        <v>0.2086165632173445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -4957,19 +4957,19 @@
         <v>56933</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44675</v>
+        <v>43809</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71616</v>
+        <v>71608</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1025076000774588</v>
+        <v>0.1025076000774587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08043743357654322</v>
+        <v>0.07887821857174264</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1289428408453763</v>
+        <v>0.1289286002597009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -4978,19 +4978,19 @@
         <v>132675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108766</v>
+        <v>110502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159386</v>
+        <v>158271</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1300578280436991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1066204827660521</v>
+        <v>0.108322095307535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1562424713486775</v>
+        <v>0.1551489471207899</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>388973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364910</v>
+        <v>367767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407307</v>
+        <v>408656</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8370153099554867</v>
+        <v>0.8370153099554866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.785235804743257</v>
+        <v>0.7913834367826552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8764675863162108</v>
+        <v>0.8793700196629457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>688</v>
@@ -5028,19 +5028,19 @@
         <v>498473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483790</v>
+        <v>483798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510731</v>
+        <v>511597</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8974923999225413</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8710571591546236</v>
+        <v>0.8710713997403001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9195625664234562</v>
+        <v>0.921121781428258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1010</v>
@@ -5049,19 +5049,19 @@
         <v>887445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>860734</v>
+        <v>861849</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>911354</v>
+        <v>909618</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.869942171956301</v>
+        <v>0.8699421719563007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8437575286513219</v>
+        <v>0.8448510528792101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8933795172339478</v>
+        <v>0.891677904692465</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>66423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51078</v>
+        <v>50388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87008</v>
+        <v>85603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.135896556894836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1045017475131853</v>
+        <v>0.1030890489787107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1780110347350017</v>
+        <v>0.1751355166704885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -5174,19 +5174,19 @@
         <v>71634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56978</v>
+        <v>57563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85372</v>
+        <v>87482</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1477714630931137</v>
+        <v>0.1477714630931136</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1175369787045189</v>
+        <v>0.1187439183981839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1761104134190272</v>
+        <v>0.1804618117967724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -5195,19 +5195,19 @@
         <v>138058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116064</v>
+        <v>118266</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163026</v>
+        <v>162635</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1418095266903383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1192186190291985</v>
+        <v>0.121480084061057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1674567649507623</v>
+        <v>0.1670551069856747</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>422356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401771</v>
+        <v>403176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>437701</v>
+        <v>438391</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.864103443105164</v>
+        <v>0.8641034431051641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8219889652649983</v>
+        <v>0.8248644833295111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8954982524868148</v>
+        <v>0.8969109510212894</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>555</v>
@@ -5245,19 +5245,19 @@
         <v>413131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>399393</v>
+        <v>397283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>427787</v>
+        <v>427202</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8522285369068865</v>
+        <v>0.8522285369068864</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8238895865809726</v>
+        <v>0.8195381882032277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.882463021295481</v>
+        <v>0.8812560816018162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>912</v>
@@ -5266,19 +5266,19 @@
         <v>835485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>810517</v>
+        <v>810908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>857479</v>
+        <v>855277</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8581904733096618</v>
+        <v>0.8581904733096617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8325432350492376</v>
+        <v>0.8329448930143254</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8807813809708015</v>
+        <v>0.8785199159389431</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>97189</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78968</v>
+        <v>77800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122541</v>
+        <v>118748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2110080178060355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1714485439256204</v>
+        <v>0.1689128455009461</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2660512392117877</v>
+        <v>0.257815040228608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -5391,19 +5391,19 @@
         <v>78093</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62552</v>
+        <v>61919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96696</v>
+        <v>94920</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1906568535500804</v>
+        <v>0.1906568535500803</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.152715320619939</v>
+        <v>0.1511696961358889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2360740883309073</v>
+        <v>0.2317384544412875</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -5412,19 +5412,19 @@
         <v>175282</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150683</v>
+        <v>149160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204932</v>
+        <v>202175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.201428702936477</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1731604324187173</v>
+        <v>0.1714104673989744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2355018550865024</v>
+        <v>0.2323332920801531</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>363404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338052</v>
+        <v>341845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>381625</v>
+        <v>382793</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7889919821939646</v>
+        <v>0.7889919821939645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7339487607882124</v>
+        <v>0.742184959771392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8285514560743795</v>
+        <v>0.8310871544990538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -5462,19 +5462,19 @@
         <v>331508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>312905</v>
+        <v>314681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347049</v>
+        <v>347682</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8093431464499198</v>
+        <v>0.8093431464499197</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7639259116690931</v>
+        <v>0.7682615455587126</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8472846793800611</v>
+        <v>0.8488303038641112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>746</v>
@@ -5483,19 +5483,19 @@
         <v>694912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>665262</v>
+        <v>668019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>719511</v>
+        <v>721034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7985712970635231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7644981449134979</v>
+        <v>0.7676667079198469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.826839567581283</v>
+        <v>0.8285895326010256</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>282352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>245505</v>
+        <v>246919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>321715</v>
+        <v>324812</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1647457711119918</v>
+        <v>0.1647457711119919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1432466369079027</v>
+        <v>0.1440714186473962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1877135117232675</v>
+        <v>0.1895205739677111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -5608,19 +5608,19 @@
         <v>255546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>229829</v>
+        <v>226558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>285823</v>
+        <v>283270</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1380693156567157</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.124174184620458</v>
+        <v>0.122407182301037</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1544277204118636</v>
+        <v>0.1530483559209357</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>504</v>
@@ -5629,19 +5629,19 @@
         <v>537898</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>490145</v>
+        <v>491424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>584573</v>
+        <v>589898</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1508949480772958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1374991217103917</v>
+        <v>0.1378578578862961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1639884790576172</v>
+        <v>0.1654823195154866</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1431510</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1392147</v>
+        <v>1389050</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1468357</v>
+        <v>1466943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8352542288880082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8122864882767324</v>
+        <v>0.8104794260322892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8567533630920974</v>
+        <v>0.855928581352604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2172</v>
@@ -5679,19 +5679,19 @@
         <v>1595310</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1565033</v>
+        <v>1567586</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1621027</v>
+        <v>1624298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8619306843432843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8455722795881364</v>
+        <v>0.8469516440790644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8758258153795421</v>
+        <v>0.8775928176989636</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3372</v>
@@ -5700,19 +5700,19 @@
         <v>3026819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2980144</v>
+        <v>2974819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3074572</v>
+        <v>3073293</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8491050519227044</v>
+        <v>0.8491050519227041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8360115209423828</v>
+        <v>0.8345176804845137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8625008782896085</v>
+        <v>0.862142142113704</v>
       </c>
     </row>
     <row r="18">
